--- a/chapter6/chapter6_tables.xlsx
+++ b/chapter6/chapter6_tables.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337F02A7-EEDE-5149-ACFA-B85098FB6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075FC43E-237B-144D-809B-141F82D30F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="24980" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
+    <workbookView xWindow="30240" yWindow="-420" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
   </bookViews>
   <sheets>
     <sheet name="作物物候表" sheetId="1" r:id="rId1"/>
     <sheet name="数据来源表" sheetId="2" r:id="rId2"/>
     <sheet name="重要参数一览表" sheetId="3" r:id="rId3"/>
     <sheet name="使用包一览表" sheetId="4" r:id="rId4"/>
+    <sheet name="主体描述" sheetId="6" r:id="rId5"/>
+    <sheet name="主体属性描述" sheetId="5" r:id="rId6"/>
+    <sheet name="主体感知" sheetId="7" r:id="rId7"/>
+    <sheet name="行为描述" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
   <si>
     <t>作物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +550,82 @@
   </si>
   <si>
     <t>santos2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E = {e1, e2, e3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F = {f1, f2, …,}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考文献/公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{f_crop…}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prec, etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[*] d, p, b, v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5994A99-1CB1-5E45-BD32-2F944EEF3065}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
@@ -1715,4 +1795,153 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D26749-253C-B141-B389-4DAC5633AEE1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B2A7F-A024-9B43-8AA1-5BB671035791}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7417951B-674B-294C-8B09-CD0D5AAE0327}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43B2466-766B-6646-B9DE-AB3CAB773416}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chapter6/chapter6_tables.xlsx
+++ b/chapter6/chapter6_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075FC43E-237B-144D-809B-141F82D30F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91A361-1CE0-0A49-8BC2-3471AC7592AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-420" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
+    <workbookView xWindow="30240" yWindow="-420" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
   </bookViews>
   <sheets>
     <sheet name="作物物候表" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="281">
   <si>
     <t>作物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,10 +605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考文献/公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +618,514 @@
   </si>
   <si>
     <t>[*] d, p, b, v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2: 社会网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1: 栅格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3: 全局环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无量纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类（合作/不合作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作物类型（玉米/小麦/水稻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地级市（依据GIS数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在省份（依据GIS数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作物蒸散发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作物蒸散发系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内生/外生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地级市内农民主体之间产生社会联系的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地级市可与其它市农民产生社会联系的关键农民数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各省关键农民之间产生社会联系的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地级市可供地表水的上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地级市当前的官方地表水配额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与自己存在社会联系的农民主体集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年的灌溉用水效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体属性随机变异的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能分配给当前农民的最小地表水额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能分配给当前农民的最大地表水额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从众意愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违规意愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月的用水需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月的灌溉水亏缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月实际地表用水配额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现朋友违规的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被朋友发现违规的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月地下水使用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月地表水使用量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源/参考文献/公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知自身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被改变的自身属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被改变的其它主体属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/移除农民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定用水来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if-else rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出超采决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从表现好的朋友处学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督朋友违规情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知其它主体属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$pop_{x, y}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ET_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$quota, demands$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$b, demands$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$neighbors, u, b, v, p_{mut}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$neighbors, v$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$gw, m, n$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${f_{crop} \dots}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$prec, etc$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$prec$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$u, b, v$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$d$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水应力系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$n_f$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ET_c, Kc_{ini}, Kc_{mid}, Kc_{end}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$gw, sw$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$quota$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$b, v$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$m, n, e, s$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$n$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会规范中从中意愿的水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会规范中违规意愿的水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$grid, group$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eq x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ETc_{x, y}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Kc_{x, y}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$prec_{x, y}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$nf_{hub, c1}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$p_n$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$p_C$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Q_{\max, c1}, Q_{\max, c2} \dots}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Q_{\min, c1}, Q_{\min, c2} \dots}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Ke$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$res$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Ks$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$grid$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$group$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$crop$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$neighbors$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$province$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$city$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$wui$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mut$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$q_{\min}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$q_{\max}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$b$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$v$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$s$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$e$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$u$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$demands$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$deficits$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$gw$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$gs$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1848,13 +2348,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B2A7F-A024-9B43-8AA1-5BB671035791}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1864,19 +2371,629 @@
         <v>146</v>
       </c>
       <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1889,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7417951B-674B-294C-8B09-CD0D5AAE0327}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1908,10 +3025,10 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1919,10 +3036,10 @@
         <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1933,14 +3050,217 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43B2466-766B-6646-B9DE-AB3CAB773416}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I8" sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chapter6/chapter6_tables.xlsx
+++ b/chapter6/chapter6_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91A361-1CE0-0A49-8BC2-3471AC7592AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C05F7-2FF5-A643-911C-2E0315FA637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-420" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
+    <workbookView xWindow="0" yWindow="22100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
   </bookViews>
   <sheets>
     <sheet name="作物物候表" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="280">
   <si>
     <t>作物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,10 +814,6 @@
   </si>
   <si>
     <t>当月地表水使用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2348,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B2A7F-A024-9B43-8AA1-5BB671035791}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B17" sqref="B17:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2383,7 +2379,7 @@
         <v>149</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2391,7 +2387,7 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
         <v>178</v>
@@ -2405,13 +2401,10 @@
       <c r="F2" t="s">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>171</v>
@@ -2428,7 +2421,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>171</v>
@@ -2445,7 +2438,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
         <v>178</v>
@@ -2465,7 +2458,7 @@
         <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
@@ -2482,7 +2475,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
@@ -2499,7 +2492,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>178</v>
@@ -2519,7 +2512,7 @@
         <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
@@ -2536,7 +2529,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>178</v>
@@ -2553,7 +2546,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>178</v>
@@ -2570,7 +2563,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>178</v>
@@ -2587,7 +2580,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
         <v>178</v>
@@ -2599,12 +2592,12 @@
         <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>178</v>
@@ -2616,12 +2609,12 @@
         <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -2633,49 +2626,38 @@
         <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="B16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -2687,66 +2669,66 @@
         <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
         <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
         <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
         <v>159</v>
@@ -2755,29 +2737,29 @@
         <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
         <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
         <v>171</v>
@@ -2786,15 +2768,15 @@
         <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
         <v>171</v>
@@ -2803,32 +2785,32 @@
         <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
         <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
@@ -2840,29 +2822,29 @@
         <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
         <v>171</v>
@@ -2874,12 +2856,12 @@
         <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
         <v>171</v>
@@ -2888,15 +2870,15 @@
         <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
         <v>171</v>
@@ -2905,15 +2887,15 @@
         <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
         <v>171</v>
@@ -2925,74 +2907,108 @@
         <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
         <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
         <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
         <v>171</v>
       </c>
       <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" t="s">
         <v>159</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>162</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3072,51 +3088,51 @@
         <v>137</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
-      </c>
-      <c r="I1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3124,140 +3140,140 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
         <v>215</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
         <v>216</v>
       </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>217</v>
-      </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" t="s">
-        <v>221</v>
-      </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" t="s">
         <v>249</v>
-      </c>
-      <c r="F8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/chapter6/chapter6_tables.xlsx
+++ b/chapter6/chapter6_tables.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songshgeo/Documents/VSCode/PhD_Thesis/chapter6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C05F7-2FF5-A643-911C-2E0315FA637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8CDD3-8CF7-6D42-8EAE-52415A7D0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{89364854-BAA5-7C43-85B9-26776BE10529}"/>
   </bookViews>
   <sheets>
     <sheet name="作物物候表" sheetId="1" r:id="rId1"/>
     <sheet name="数据来源表" sheetId="2" r:id="rId2"/>
     <sheet name="重要参数一览表" sheetId="3" r:id="rId3"/>
-    <sheet name="使用包一览表" sheetId="4" r:id="rId4"/>
-    <sheet name="主体描述" sheetId="6" r:id="rId5"/>
-    <sheet name="主体属性描述" sheetId="5" r:id="rId6"/>
-    <sheet name="主体感知" sheetId="7" r:id="rId7"/>
-    <sheet name="行为描述" sheetId="8" r:id="rId8"/>
+    <sheet name="模型误差" sheetId="9" r:id="rId4"/>
+    <sheet name="使用包一览表" sheetId="4" r:id="rId5"/>
+    <sheet name="主体描述" sheetId="6" r:id="rId6"/>
+    <sheet name="主体属性描述" sheetId="5" r:id="rId7"/>
+    <sheet name="主体感知" sheetId="7" r:id="rId8"/>
+    <sheet name="行为描述" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="288">
   <si>
     <t>作物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,6 +1125,30 @@
     <t>$gs$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,7 +1157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1169,6 +1194,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1192,7 +1224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,6 +1238,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1955,6 +1990,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB223F64-C82F-1F45-92F1-BA99FF7917B4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B0823-CB53-A34D-BF71-C2861F340517}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -2293,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D26749-253C-B141-B389-4DAC5633AEE1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2342,11 +2445,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43B2A7F-A024-9B43-8AA1-5BB671035791}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:F38"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7417951B-674B-294C-8B09-CD0D5AAE0327}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3064,7 +3167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43B2466-766B-6646-B9DE-AB3CAB773416}">
   <dimension ref="A1:I8"/>
   <sheetViews>
